--- a/TestBook.xlsx
+++ b/TestBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankschweitzer/Documents/Emily Cadent/TV_Ad_Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE46263-79C3-6546-8CC2-26ACEDDD0879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E58220-5651-5241-86DE-480AD71E2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{BEDAF458-AB54-4F4B-AFF0-22B8A8AAABE8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="15540" xr2:uid="{BEDAF458-AB54-4F4B-AFF0-22B8A8AAABE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t>Advertiser</t>
   </si>
@@ -489,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD1E3D-88BF-5647-B74D-B659C2135D2D}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -544,13 +544,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,13 +558,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -572,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
@@ -586,13 +586,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,13 +600,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,13 +628,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,16 +642,75 @@
         <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D15">
+    <sortCondition ref="D1:D15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>